--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_224.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['D', 'A', 'D', 'G:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'F:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.2, 36.2)]</t>
+          <t>[('0:00:32.074829', '0:00:39.540045')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:15.880000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2965116279069767</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>jaah_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_36</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04198369565217391</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>[['Bb:maj7', 'Bb:maj7', 'Bb:maj7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.74, 64.44)]</t>
+          <t>[['G:maj7', 'G:maj7', 'G:maj7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.284457, 22.098788)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:05:14.490000', '0:05:15.710000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:03:03.090000', '0:03:04.440000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09584178498985801</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02941646682653877</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06)]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:03.280385')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:45.540000', '0:00:48.740000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>isophonics_116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1071428571428571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.2, 22.82)]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
+          <t>[('0:00:57.789229', '0:01:03.373628')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:22.940000', '0:00:27.713000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1472222222222222</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['F#', 'B', 'B/7', 'B/6']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
+          <t>[['A', 'D', 'D/2', 'D/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34), (0.78, 19.18)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:04.940612', '0:00:07.123287')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:52.196388', '0:00:57.710900')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(6.18, 13.74)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(122.57, 124.49)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1076555023923445</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5576923076923077</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(63.861, 66.732)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:33.698526', '0:00:40.885102')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_246</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1421370967741936</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/7']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3888888888888888</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D']]</t>
+          <t>[['B', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.560212, 12.866913)]</t>
+          <t>[['G', 'C/5', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(55.641383, 61.040381)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:30.720385', '0:01:50.178707')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:04.476575', '0:01:10.099405')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.02, 15.9)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.12, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5369318181818181</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(30.16, 44.08)]</t>
+          <t>[['G', 'C', 'G', 'D', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(95.26, 113.64)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:17.913000', '0:00:30.076000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:08.158789', '0:00:28.461467')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3786549707602339</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(87.68653, 104.985396)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(76.132993, 79.523105)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(35.46, 50.44)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_60</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.3, 25.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(58.990317, 63.680748)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
